--- a/biology/Botanique/Euphorbe_lactée/Euphorbe_lactée.xlsx
+++ b/biology/Botanique/Euphorbe_lactée/Euphorbe_lactée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Euphorbe_lact%C3%A9e</t>
+          <t>Euphorbe_lactée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euphorbia lactea
-L'Euphorbe lactée (Euphorbia lactea) est une espèce de plantes de la famille des Euphorbiaceae. Elle est originaire d'Asie tropicale, principalement de l'Inde[3].
+L'Euphorbe lactée (Euphorbia lactea) est une espèce de plantes de la famille des Euphorbiaceae. Elle est originaire d'Asie tropicale, principalement de l'Inde.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Euphorbe_lact%C3%A9e</t>
+          <t>Euphorbe_lactée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Euphorbia lactea a été décrite en 1812 par le botaniste, carcinologiste et entomologiste britannique Adrian Hardy Haworth (1767-1833)[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Euphorbia lactea a été décrite en 1812 par le botaniste, carcinologiste et entomologiste britannique Adrian Hardy Haworth (1767-1833).
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Euphorbe_lact%C3%A9e</t>
+          <t>Euphorbe_lactée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euphorbia lactea est un arbuste dressé atteignant 5 m de hauteur, avec des branches succulentes de 3-5 cm de diamètre, striées, avec une forme triangulaire. ou une section transversale rhombique. Les crêtes présentent des épines courtes atteignant 5 mm de long. Les feuilles sont minuscules, et caduques[3]. Toutes les parties de la plante contiennent un poisonous laiteux latex[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euphorbia lactea est un arbuste dressé atteignant 5 m de hauteur, avec des branches succulentes de 3-5 cm de diamètre, striées, avec une forme triangulaire. ou une section transversale rhombique. Les crêtes présentent des épines courtes atteignant 5 mm de long. Les feuilles sont minuscules, et caduques. Toutes les parties de la plante contiennent un poisonous laiteux latex.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Euphorbe_lact%C3%A9e</t>
+          <t>Euphorbe_lactée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,10 +590,12 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les nombreux noms commune de cette espèce sont :  'euphorbe marbrée'[6], fan à volants[citation nécessaire], elkhorn[citation nécessaire], euphorbe candélabre[6], arbre candélabre, cactus candélabre, plante candélabre, os de dragon[6], faux cactus[6], hatrack cactus[6], euphorbe milkstripe, bougeoir marbré.
-Elle est utilisée en médecine en Inde[7]. Elle est largement cultivée comme une plante ornementale, à la fois sous les tropiques et comme plante d'intérieur dans les régions tempérées ; un certain nombre de cultivars ont été sélectionnés pour un usage ornemental, notamment 'Cristata' à ramification frangée[3],[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les nombreux noms commune de cette espèce sont :  'euphorbe marbrée', fan à volants[citation nécessaire], elkhorn[citation nécessaire], euphorbe candélabre, arbre candélabre, cactus candélabre, plante candélabre, os de dragon, faux cactus, hatrack cactus, euphorbe milkstripe, bougeoir marbré.
+Elle est utilisée en médecine en Inde. Elle est largement cultivée comme une plante ornementale, à la fois sous les tropiques et comme plante d'intérieur dans les régions tempérées ; un certain nombre de cultivars ont été sélectionnés pour un usage ornemental, notamment 'Cristata' à ramification frangée,.
 </t>
         </is>
       </c>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Euphorbe_lact%C3%A9e</t>
+          <t>Euphorbe_lactée</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>A. H. Haworth, Synopsis plantarum succulentarum,  (œuvre écrite), -, 1812</t>
         </is>
